--- a/src/visio/trafficlightexperiment.xlsx
+++ b/src/visio/trafficlightexperiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uniProjects\gammalearningtdk\src\visio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2ACAFB2-D3FD-4189-A239-C7E3D7C9651F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFA9201-FCAE-4645-8B88-4527E3A0B35C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8ADC5932-451D-4662-9DB7-E2FC4D5E56B1}"/>
   </bookViews>
@@ -38,10 +38,10 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>Output query</t>
+    <t>Correctness check</t>
   </si>
   <si>
-    <t>Correctness check</t>
+    <t>Requirement</t>
   </si>
 </sst>
 </file>
@@ -128,7 +128,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Output query</c:v>
+                  <c:v>Requirement</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>18</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
